--- a/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.9445054079993</v>
+        <v>17.92896912648222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>18.04364062147763</v>
+        <v>18.03540430513364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.53683363509633</v>
+        <v>17.54483106898187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.36226371507767</v>
+        <v>18.30026277093992</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.5768712896766</v>
+        <v>17.58641358000684</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.94800800122425</v>
+        <v>17.97568261974271</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.55426022418749</v>
+        <v>17.54959402896761</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.70954495836993</v>
+        <v>17.74828639700152</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.8573458779417</v>
+        <v>17.83662319220277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18.0698883931827</v>
+        <v>18.08893762527624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.62035347419922</v>
+        <v>17.58534751592324</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>18.14782622364372</v>
+        <v>18.19553958560943</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.39032138517407</v>
+        <v>18.39247779616823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.44189190824759</v>
+        <v>18.44246802885588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.9460847749092</v>
+        <v>17.94726940192754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.03033833915608</v>
+        <v>19.02009506379673</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.08143779857362</v>
+        <v>18.08587014331964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.39183681241885</v>
+        <v>18.40628039118254</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.97633964063314</v>
+        <v>18.00263399742807</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.4819601680465</v>
+        <v>18.52927701027964</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.17821844020312</v>
+        <v>18.16111862756044</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.37165723448354</v>
+        <v>18.37613961178544</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.9176317271208</v>
+        <v>17.91480361060583</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.69938023565273</v>
+        <v>18.72286160320963</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>17.39461681419818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17.85851646140567</v>
+        <v>17.85851646140566</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>17.73798711193488</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.72207848852257</v>
+        <v>17.72347022448793</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.96101450344773</v>
+        <v>17.95900706559524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.19758120009365</v>
+        <v>17.18988104779675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.50049839211988</v>
+        <v>17.55655181853435</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.48241799464491</v>
+        <v>17.4920679904999</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.595819069027</v>
+        <v>17.59704130231979</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.33054995639282</v>
+        <v>17.31804382083681</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.72425989827195</v>
+        <v>17.72310350711258</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.68891573765945</v>
+        <v>17.66586790416908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.84739786888291</v>
+        <v>17.83746921796526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.31170439646731</v>
+        <v>17.31711147858331</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.71584120882552</v>
+        <v>17.73310648302348</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.12998273834337</v>
+        <v>18.10547689078658</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.29865800353615</v>
+        <v>18.28421142467408</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.58088223117936</v>
+        <v>17.57480180600189</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.14797848939013</v>
+        <v>18.18374583613662</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.95230059339477</v>
+        <v>17.94235357271844</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.97478283718415</v>
+        <v>17.98743227507696</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.70432186798913</v>
+        <v>17.71805069683285</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.23917881557397</v>
+        <v>18.24067915057747</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.97915381796002</v>
+        <v>17.97184972772729</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18.10755479498388</v>
+        <v>18.09491591248046</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.58319665776862</v>
+        <v>17.58931346633306</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>18.12267297067598</v>
+        <v>18.11310043488651</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.21438612369136</v>
+        <v>17.18667847631343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.51107632908199</v>
+        <v>17.50881576496077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.25790960777128</v>
+        <v>17.24819870143984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.37382599643866</v>
+        <v>17.39099124254163</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.27059972776708</v>
+        <v>17.25523672013847</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.5371600424377</v>
+        <v>17.53703671928965</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.28320085081853</v>
+        <v>17.29101218088104</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.71597036099341</v>
+        <v>17.69016442665117</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.32683978956325</v>
+        <v>17.30938441471593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.59399867068239</v>
+        <v>17.59157295654097</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.3174660537574</v>
+        <v>17.33354554200379</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.61238333937729</v>
+        <v>17.59892606380324</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.7051409816531</v>
+        <v>17.69905934693057</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.93268635046114</v>
+        <v>17.92481467968717</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.62436237941679</v>
+        <v>17.60716530858408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.86791142912122</v>
+        <v>17.87264116493884</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.73536223790908</v>
+        <v>17.70468337701237</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.93974477815233</v>
+        <v>17.94072807341231</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.67429444181241</v>
+        <v>17.67359232265404</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.07107809134419</v>
+        <v>18.05770746360044</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.64650677827806</v>
+        <v>17.66147359724377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.87973468083135</v>
+        <v>17.87365910240279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.57906552479869</v>
+        <v>17.59372668256011</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.90143552805499</v>
+        <v>17.90532653472937</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.21389100034693</v>
+        <v>17.24455835821773</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.42248629182101</v>
+        <v>17.41786188378117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.58144829283637</v>
+        <v>16.57995234115255</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.24556849819241</v>
+        <v>17.2601492235637</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16.74111767978664</v>
+        <v>16.76629742685275</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.04744831328368</v>
+        <v>17.07761496380629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.67177276096238</v>
+        <v>16.6531317718591</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.30583261929197</v>
+        <v>17.28194959909299</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.08525929166227</v>
+        <v>17.08820839957609</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.31273185234006</v>
+        <v>17.32135673124994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.69950596921954</v>
+        <v>16.69138251643376</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.335901610947</v>
+        <v>17.34717209548423</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.73446374966669</v>
+        <v>17.74920941117518</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.88300210935723</v>
+        <v>17.86808793059268</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.0784620551802</v>
+        <v>17.06738212886597</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.70640372605949</v>
+        <v>17.73171371948205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.33524308123574</v>
+        <v>17.36002806370194</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.53806281423971</v>
+        <v>17.54249542845544</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.10915122700366</v>
+        <v>17.08418007916334</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.65390370164114</v>
+        <v>17.64998069477141</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.46669394185415</v>
+        <v>17.48625281135212</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.65863759357801</v>
+        <v>17.64661635980313</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.01811218716713</v>
+        <v>17.02241991572068</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.6358781996188</v>
+        <v>17.64199133581531</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.93369840756803</v>
+        <v>16.92091736870685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.58584165001673</v>
+        <v>17.60221905892532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.75738365570924</v>
+        <v>16.75748026321885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.74916212581743</v>
+        <v>16.7550161513694</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.32478239725633</v>
+        <v>16.29840780178204</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.9393573740378</v>
+        <v>16.90287646129318</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.27803932398894</v>
+        <v>16.27029067615869</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.74733646133268</v>
+        <v>16.72875904553843</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.71892847249192</v>
+        <v>16.7050144578348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.33302687797589</v>
+        <v>17.33320408646196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.58961504152685</v>
+        <v>16.59541303177405</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.81958538293275</v>
+        <v>16.81884030213479</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.56149780870637</v>
+        <v>17.56561426616296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.12803518642902</v>
+        <v>18.10390644791162</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.28951360659358</v>
+        <v>17.30179429726143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.28474180606348</v>
+        <v>17.27836941965129</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.96298206478969</v>
+        <v>16.94815192764738</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.50459233997135</v>
+        <v>17.50864195679517</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.83373908845464</v>
+        <v>16.84102516689918</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.1619488779125</v>
+        <v>17.14201514622448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.18414551657979</v>
+        <v>17.17943945404284</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.73152502908158</v>
+        <v>17.72608076933173</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16.99372107013758</v>
+        <v>16.98705301711814</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.15957459778635</v>
+        <v>17.14700903346697</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>17.20692533925238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17.06151343069578</v>
+        <v>17.06151343069577</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>16.70222325260299</v>
@@ -1361,7 +1361,7 @@
         <v>16.41677393188694</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>17.16503794311323</v>
+        <v>17.16503794311324</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>16.81454558784141</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>16.56015418743975</v>
+        <v>16.56121656042075</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>17.12481344945238</v>
+        <v>17.08359915476837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.89203315820331</v>
+        <v>16.90662546208517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.77341804299546</v>
+        <v>16.75960487498325</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>16.31837631308746</v>
+        <v>16.30607193057141</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>16.84017652532637</v>
+        <v>16.84626874223439</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.11076810854371</v>
+        <v>16.106104827149</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>16.92658355287752</v>
+        <v>16.90279165120308</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.57080375195244</v>
+        <v>16.55135082250421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.0937565705134</v>
+        <v>17.12300676960508</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16.55538066050233</v>
+        <v>16.55592397711037</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.93430958267307</v>
+        <v>16.94151445954817</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.26386696553032</v>
+        <v>17.26542549562953</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.76854189257343</v>
+        <v>17.76593384174471</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.50602825740906</v>
+        <v>17.50532490474296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.31372319423353</v>
+        <v>17.31309684265809</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>17.04711680760083</v>
+        <v>17.04520434342182</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>17.46999630479392</v>
+        <v>17.47230426113772</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>16.70989765868896</v>
+        <v>16.71952080068187</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>17.39523719321035</v>
+        <v>17.37003452090744</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.06776986776087</v>
+        <v>17.06572506654517</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17.54043063072497</v>
+        <v>17.56066445870994</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.00567955354386</v>
+        <v>17.00053113856657</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>17.28380122172697</v>
+        <v>17.29165020460106</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>16.46158889522945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16.74381834623231</v>
+        <v>16.74381834623232</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>15.87669154058668</v>
@@ -1509,7 +1509,7 @@
         <v>16.29819204289087</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>16.34735958932754</v>
+        <v>16.34735958932753</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.8657842520374</v>
+        <v>15.85283571472215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.47142368498682</v>
+        <v>16.5242925818924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.10458271883942</v>
+        <v>16.07265850837904</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.42239733909492</v>
+        <v>16.39489616709829</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>15.40441901408634</v>
+        <v>15.41182093303385</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.86965464765284</v>
+        <v>16.87229360294228</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15.84336631463165</v>
+        <v>15.79202957709197</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>15.79580380419839</v>
+        <v>15.80837568744555</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.72420435685273</v>
+        <v>15.70104496712785</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16.81675614840494</v>
+        <v>16.79698774809891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16.02303075499257</v>
+        <v>16.0123594223099</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>16.12113054835034</v>
+        <v>16.12841064968784</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.87748575820719</v>
+        <v>16.84989701594147</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.30661820027098</v>
+        <v>17.32560857220441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.81800660800073</v>
+        <v>16.77035061130606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.04024166654339</v>
+        <v>17.03409394893043</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.30311310581816</v>
+        <v>16.2982896549668</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.49278768989869</v>
+        <v>17.47171813502679</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.57290644058164</v>
+        <v>16.55538279947546</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.34376760983855</v>
+        <v>16.35490395562866</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>16.42122311585467</v>
+        <v>16.42481646388681</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.30274533204012</v>
+        <v>17.31737842620042</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16.5719612345263</v>
+        <v>16.5438416969778</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>16.54987257752326</v>
+        <v>16.55674400161386</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>17.43557613332612</v>
+        <v>17.44244776701244</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>17.71885371849482</v>
+        <v>17.71306898708089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17.10258600904802</v>
+        <v>17.11460326327352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17.40112877394468</v>
+        <v>17.40119774765895</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.07120472054473</v>
+        <v>17.05870821963127</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>17.4521006412773</v>
+        <v>17.46046999541545</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>16.92908062907809</v>
+        <v>16.92649472435913</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>17.29168442293502</v>
+        <v>17.28862291543497</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>17.28366639183418</v>
+        <v>17.28629935885544</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17.60627291473986</v>
+        <v>17.60796083647228</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17.03843250634946</v>
+        <v>17.03984675130189</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>17.37449261460893</v>
+        <v>17.37847186163799</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.64839470283052</v>
+        <v>17.63986620099217</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.89283001513119</v>
+        <v>17.88817111204339</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17.29141644919858</v>
+        <v>17.29970936872567</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.62004796889356</v>
+        <v>17.63261000576738</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>17.28551172476867</v>
+        <v>17.27721258296998</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>17.63836685635143</v>
+        <v>17.6405218883501</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>17.12606710556096</v>
+        <v>17.11363533062856</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>17.46899547497853</v>
+        <v>17.47105540049682</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.43559789138353</v>
+        <v>17.44384738849888</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.73635572533399</v>
+        <v>17.73991521000577</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.18069488161414</v>
+        <v>17.17579341402944</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>17.51667800593346</v>
+        <v>17.51802243580736</v>
       </c>
     </row>
     <row r="28">
